--- a/data/pca/factorExposure/factorExposure_2017-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02282579558480546</v>
+        <v>0.01351903780040199</v>
       </c>
       <c r="C2">
-        <v>-0.003960352810822089</v>
+        <v>0.03747459348510258</v>
       </c>
       <c r="D2">
-        <v>0.01213464967998669</v>
+        <v>-0.02838560508448533</v>
       </c>
       <c r="E2">
-        <v>-0.01086695457348872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03264074575489923</v>
+      </c>
+      <c r="F2">
+        <v>-0.03039389134219523</v>
+      </c>
+      <c r="G2">
+        <v>-0.01734121377134425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01269270247502358</v>
+        <v>0.05268217152240513</v>
       </c>
       <c r="C3">
-        <v>0.0531104105007501</v>
+        <v>0.07590522100877636</v>
       </c>
       <c r="D3">
-        <v>-0.01905473630699815</v>
+        <v>-0.01473906249101978</v>
       </c>
       <c r="E3">
-        <v>0.0129558726613263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09313830725314531</v>
+      </c>
+      <c r="F3">
+        <v>-0.05610388319899083</v>
+      </c>
+      <c r="G3">
+        <v>-0.07786120098881619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02232900954098113</v>
+        <v>0.05457346177259611</v>
       </c>
       <c r="C4">
-        <v>0.02811418220125389</v>
+        <v>0.06431014126781405</v>
       </c>
       <c r="D4">
-        <v>0.04748216092046462</v>
+        <v>-0.02255161285480379</v>
       </c>
       <c r="E4">
-        <v>0.006493381570726226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.008136516202424135</v>
+      </c>
+      <c r="F4">
+        <v>-0.01741463883627322</v>
+      </c>
+      <c r="G4">
+        <v>-0.05011469801589323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01513644234021952</v>
+        <v>0.03128884570587842</v>
       </c>
       <c r="C6">
-        <v>0.04213539789602191</v>
+        <v>0.05406462509603158</v>
       </c>
       <c r="D6">
-        <v>0.05962447533169318</v>
+        <v>-0.01630836502602186</v>
       </c>
       <c r="E6">
-        <v>-0.01101207652080717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.008722708027904327</v>
+      </c>
+      <c r="F6">
+        <v>-0.01789252493570627</v>
+      </c>
+      <c r="G6">
+        <v>-0.02740244255085787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01050270636727738</v>
+        <v>0.01930526716902788</v>
       </c>
       <c r="C7">
-        <v>0.01654543209479357</v>
+        <v>0.03775895038813274</v>
       </c>
       <c r="D7">
-        <v>0.03436236954595728</v>
+        <v>-0.01247336780397067</v>
       </c>
       <c r="E7">
-        <v>0.06415286260319224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01005575532009722</v>
+      </c>
+      <c r="F7">
+        <v>-0.01303820145165068</v>
+      </c>
+      <c r="G7">
+        <v>-0.07963848081600222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0006390635266670554</v>
+        <v>-0.003357864866907832</v>
       </c>
       <c r="C8">
-        <v>-0.01226472405886356</v>
+        <v>0.0147563010853947</v>
       </c>
       <c r="D8">
-        <v>0.0171994910607126</v>
+        <v>-0.003769712225169506</v>
       </c>
       <c r="E8">
-        <v>0.002222425096478339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01710974281467372</v>
+      </c>
+      <c r="F8">
+        <v>-0.01872166419066384</v>
+      </c>
+      <c r="G8">
+        <v>-0.02763978234808202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01461914854428447</v>
+        <v>0.02747175859868866</v>
       </c>
       <c r="C9">
-        <v>0.02527277541367319</v>
+        <v>0.04310363627929438</v>
       </c>
       <c r="D9">
-        <v>0.02648832121066085</v>
+        <v>-0.01572268214005752</v>
       </c>
       <c r="E9">
-        <v>0.0007602680883329957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01165253821531529</v>
+      </c>
+      <c r="F9">
+        <v>-0.02055355492809656</v>
+      </c>
+      <c r="G9">
+        <v>-0.03856621661363113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008478210580479768</v>
+        <v>0.0914954266286451</v>
       </c>
       <c r="C10">
-        <v>0.111246085052414</v>
+        <v>-0.1834633105157671</v>
       </c>
       <c r="D10">
-        <v>-0.1440781993164456</v>
+        <v>0.01853864156693551</v>
       </c>
       <c r="E10">
-        <v>0.05116998377919925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01972162240691949</v>
+      </c>
+      <c r="F10">
+        <v>0.01821627846997918</v>
+      </c>
+      <c r="G10">
+        <v>-0.03759609722361031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>2.788996518280417e-05</v>
+        <v>0.03487104004467368</v>
       </c>
       <c r="C11">
-        <v>0.01415335215963395</v>
+        <v>0.05321868003739533</v>
       </c>
       <c r="D11">
-        <v>0.03266983899602739</v>
+        <v>-0.00151044222812733</v>
       </c>
       <c r="E11">
-        <v>-0.01644492060451228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003320041598169041</v>
+      </c>
+      <c r="F11">
+        <v>-0.02518406433478706</v>
+      </c>
+      <c r="G11">
+        <v>-0.01919216218236319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005550174091182448</v>
+        <v>0.03237799003906799</v>
       </c>
       <c r="C12">
-        <v>0.02397574229855911</v>
+        <v>0.04516447452071409</v>
       </c>
       <c r="D12">
-        <v>0.03703998800645704</v>
+        <v>-0.005617168376103192</v>
       </c>
       <c r="E12">
-        <v>-0.01139993222276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005451759426037021</v>
+      </c>
+      <c r="F12">
+        <v>-0.007718860981178107</v>
+      </c>
+      <c r="G12">
+        <v>-0.02210355554824081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02068408445525331</v>
+        <v>0.01176502383011593</v>
       </c>
       <c r="C13">
-        <v>0.008006750380324425</v>
+        <v>0.03318674660871034</v>
       </c>
       <c r="D13">
-        <v>0.006444358765679583</v>
+        <v>-0.02483792767235106</v>
       </c>
       <c r="E13">
-        <v>-0.006193124520910216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02941544150724481</v>
+      </c>
+      <c r="F13">
+        <v>-0.02139210809696506</v>
+      </c>
+      <c r="G13">
+        <v>-0.03302007716738229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006952877428103638</v>
+        <v>0.007513606143607842</v>
       </c>
       <c r="C14">
-        <v>0.01263542198247921</v>
+        <v>0.02537895175881848</v>
       </c>
       <c r="D14">
-        <v>0.01354103722674134</v>
+        <v>-0.008299935924315783</v>
       </c>
       <c r="E14">
-        <v>0.01024545418102307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004766164369217442</v>
+      </c>
+      <c r="F14">
+        <v>-0.003059291298733845</v>
+      </c>
+      <c r="G14">
+        <v>-0.03955970090946256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005984323153588642</v>
+        <v>0.03131672305080281</v>
       </c>
       <c r="C16">
-        <v>0.02005660317952059</v>
+        <v>0.04338761415436867</v>
       </c>
       <c r="D16">
-        <v>0.04005660589853859</v>
+        <v>-0.001128118576440634</v>
       </c>
       <c r="E16">
-        <v>-0.01300750673333048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004080901266961984</v>
+      </c>
+      <c r="F16">
+        <v>-0.01026433440545653</v>
+      </c>
+      <c r="G16">
+        <v>-0.02202866158652925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01200001487404362</v>
+        <v>0.0283771048544721</v>
       </c>
       <c r="C19">
-        <v>0.01796336699792222</v>
+        <v>0.05455483617303607</v>
       </c>
       <c r="D19">
-        <v>0.02630376280266143</v>
+        <v>-0.01578916437726243</v>
       </c>
       <c r="E19">
-        <v>-0.003146049799327504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04891986370499223</v>
+      </c>
+      <c r="F19">
+        <v>-0.03704742989417265</v>
+      </c>
+      <c r="G19">
+        <v>-0.04358617222840857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009679948008939468</v>
+        <v>0.01104777820806843</v>
       </c>
       <c r="C20">
-        <v>0.001375078153585934</v>
+        <v>0.03455982545819993</v>
       </c>
       <c r="D20">
-        <v>0.003318155517649327</v>
+        <v>-0.01316212473475403</v>
       </c>
       <c r="E20">
-        <v>0.003893327867811086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02434201514753304</v>
+      </c>
+      <c r="F20">
+        <v>-0.005473141378367938</v>
+      </c>
+      <c r="G20">
+        <v>-0.03363370857004665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01348761092538484</v>
+        <v>0.01190357616312138</v>
       </c>
       <c r="C21">
-        <v>0.02827265161336994</v>
+        <v>0.03302913738484208</v>
       </c>
       <c r="D21">
-        <v>0.02000475278844872</v>
+        <v>-0.0163047101794959</v>
       </c>
       <c r="E21">
-        <v>0.01616963665178126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.033166944601599</v>
+      </c>
+      <c r="F21">
+        <v>-0.0194135658502847</v>
+      </c>
+      <c r="G21">
+        <v>-0.05774468697141594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004696953861773373</v>
+        <v>0.02621245962578429</v>
       </c>
       <c r="C24">
-        <v>0.01679274882185899</v>
+        <v>0.04636324064018132</v>
       </c>
       <c r="D24">
-        <v>0.03425877858746421</v>
+        <v>-0.006363490820840622</v>
       </c>
       <c r="E24">
-        <v>-0.0128325175105759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002239842303996972</v>
+      </c>
+      <c r="F24">
+        <v>-0.02061635110006253</v>
+      </c>
+      <c r="G24">
+        <v>-0.02096188460684733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01098312214311652</v>
+        <v>0.04298049729295471</v>
       </c>
       <c r="C25">
-        <v>0.03031767936267856</v>
+        <v>0.05374515512578432</v>
       </c>
       <c r="D25">
-        <v>0.03394932358436653</v>
+        <v>-0.01024540103450086</v>
       </c>
       <c r="E25">
-        <v>-0.01213968244707993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.009068562815367808</v>
+      </c>
+      <c r="F25">
+        <v>-0.01626852972456835</v>
+      </c>
+      <c r="G25">
+        <v>-0.02694752570606233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02287241523601996</v>
+        <v>0.008037090774039166</v>
       </c>
       <c r="C26">
-        <v>0.005013047768750239</v>
+        <v>0.008884636128179645</v>
       </c>
       <c r="D26">
-        <v>-0.0009323098079091934</v>
+        <v>-0.02374661782350224</v>
       </c>
       <c r="E26">
-        <v>0.007517272376038438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01053514384381853</v>
+      </c>
+      <c r="F26">
+        <v>-0.006640423423193759</v>
+      </c>
+      <c r="G26">
+        <v>-0.02807240503402104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02462983076630361</v>
+        <v>0.1156207279322054</v>
       </c>
       <c r="C28">
-        <v>0.161656605656832</v>
+        <v>-0.2267246929773709</v>
       </c>
       <c r="D28">
-        <v>-0.2176455217214228</v>
+        <v>0.009919335503422741</v>
       </c>
       <c r="E28">
-        <v>0.08386924571203794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01035514776922718</v>
+      </c>
+      <c r="F28">
+        <v>0.009148791420334841</v>
+      </c>
+      <c r="G28">
+        <v>-0.0556111885705176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007083335038219672</v>
+        <v>0.01290372002826529</v>
       </c>
       <c r="C29">
-        <v>0.01701514369035745</v>
+        <v>0.0194986327953771</v>
       </c>
       <c r="D29">
-        <v>0.00882727363337109</v>
+        <v>-0.00695155501412958</v>
       </c>
       <c r="E29">
-        <v>0.006419352499739194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004616219786141156</v>
+      </c>
+      <c r="F29">
+        <v>0.006715200746530152</v>
+      </c>
+      <c r="G29">
+        <v>-0.03121460631366316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02433163428735778</v>
+        <v>0.04003838677883864</v>
       </c>
       <c r="C30">
-        <v>0.0290320822979253</v>
+        <v>0.06996040123366352</v>
       </c>
       <c r="D30">
-        <v>0.03583495621004323</v>
+        <v>-0.02702497504306728</v>
       </c>
       <c r="E30">
-        <v>-0.06799321193809187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02763582405892252</v>
+      </c>
+      <c r="F30">
+        <v>-0.04569582969931144</v>
+      </c>
+      <c r="G30">
+        <v>-0.00330214856158613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.00647602147990303</v>
+        <v>0.0440377902317351</v>
       </c>
       <c r="C31">
-        <v>0.05056713197915896</v>
+        <v>0.03099892649473497</v>
       </c>
       <c r="D31">
-        <v>0.02360959462866044</v>
+        <v>-0.002954621525890375</v>
       </c>
       <c r="E31">
-        <v>0.002368528414859221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008769579480268387</v>
+      </c>
+      <c r="F31">
+        <v>0.03546501977690249</v>
+      </c>
+      <c r="G31">
+        <v>-0.02839966044288042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008408390690831474</v>
+        <v>0.005125041039463494</v>
       </c>
       <c r="C32">
-        <v>-0.003061887410670401</v>
+        <v>0.03156851277087933</v>
       </c>
       <c r="D32">
-        <v>0.01791310778570381</v>
+        <v>0.005096174656037459</v>
       </c>
       <c r="E32">
-        <v>0.0242121279033091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01815242183788709</v>
+      </c>
+      <c r="F32">
+        <v>-0.07055395551400662</v>
+      </c>
+      <c r="G32">
+        <v>-0.04985613702694236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01208402542696251</v>
+        <v>0.02885567369064859</v>
       </c>
       <c r="C33">
-        <v>0.02666292544019545</v>
+        <v>0.04954184719864449</v>
       </c>
       <c r="D33">
-        <v>0.0102757439114936</v>
+        <v>-0.0141308622575045</v>
       </c>
       <c r="E33">
-        <v>-0.02828461480292325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02549474177187845</v>
+      </c>
+      <c r="F33">
+        <v>-0.02506940561321761</v>
+      </c>
+      <c r="G33">
+        <v>-0.03087710981958034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005161545196498829</v>
+        <v>0.04500173992475855</v>
       </c>
       <c r="C34">
-        <v>0.02711028532544144</v>
+        <v>0.05496340724991898</v>
       </c>
       <c r="D34">
-        <v>0.041947148312212</v>
+        <v>0.005761287421004891</v>
       </c>
       <c r="E34">
-        <v>-0.005297004769250312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007938770062153884</v>
+      </c>
+      <c r="F34">
+        <v>-0.02396414267268893</v>
+      </c>
+      <c r="G34">
+        <v>-0.03223182225996521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01165514842424869</v>
+        <v>0.01067325696989899</v>
       </c>
       <c r="C36">
-        <v>0.01524604310213766</v>
+        <v>0.006607239872738789</v>
       </c>
       <c r="D36">
-        <v>0.001088232188983604</v>
+        <v>-0.01124002352141251</v>
       </c>
       <c r="E36">
-        <v>0.001203404273235598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00254057432534392</v>
+      </c>
+      <c r="F36">
+        <v>-0.001288053199552839</v>
+      </c>
+      <c r="G36">
+        <v>-0.02195763824246688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0065155658730516</v>
+        <v>0.03387829544224134</v>
       </c>
       <c r="C38">
-        <v>0.0257601642820278</v>
+        <v>0.02551442029068429</v>
       </c>
       <c r="D38">
-        <v>0.01899740837435327</v>
+        <v>0.008126048764548184</v>
       </c>
       <c r="E38">
-        <v>-0.006011403663215208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005694637123817872</v>
+      </c>
+      <c r="F38">
+        <v>0.0001287690429129281</v>
+      </c>
+      <c r="G38">
+        <v>-0.03058765848733812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005804610277744728</v>
+        <v>0.03186438260889997</v>
       </c>
       <c r="C39">
-        <v>0.01067487599312516</v>
+        <v>0.08208473515183401</v>
       </c>
       <c r="D39">
-        <v>0.06552332636748269</v>
+        <v>-0.01182032586056799</v>
       </c>
       <c r="E39">
-        <v>-0.02081828479144926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02009019549952227</v>
+      </c>
+      <c r="F39">
+        <v>-0.04048198508998295</v>
+      </c>
+      <c r="G39">
+        <v>-0.02395667761433821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01053624773545649</v>
+        <v>0.02011431414280295</v>
       </c>
       <c r="C40">
-        <v>0.02131237193400646</v>
+        <v>0.02945020938605843</v>
       </c>
       <c r="D40">
-        <v>0.03061573474659286</v>
+        <v>-0.01302455290553213</v>
       </c>
       <c r="E40">
-        <v>-0.01875210112943388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02361140854313917</v>
+      </c>
+      <c r="F40">
+        <v>-0.01928532608579548</v>
+      </c>
+      <c r="G40">
+        <v>-0.02552061731474255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005091578191318213</v>
+        <v>0.01188176535181817</v>
       </c>
       <c r="C41">
-        <v>0.01660327126557343</v>
+        <v>-0.001810147691518899</v>
       </c>
       <c r="D41">
-        <v>-0.008778465905236942</v>
+        <v>-0.003516226601010159</v>
       </c>
       <c r="E41">
-        <v>0.004065264074726025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003233258958761712</v>
+      </c>
+      <c r="F41">
+        <v>-0.002033895957939891</v>
+      </c>
+      <c r="G41">
+        <v>-0.01534827864222828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09646458780155866</v>
+        <v>0.03044966160128541</v>
       </c>
       <c r="C42">
-        <v>0.1245199131950813</v>
+        <v>0.05431830077483148</v>
       </c>
       <c r="D42">
-        <v>0.17164906239751</v>
+        <v>-0.1013533095251015</v>
       </c>
       <c r="E42">
-        <v>-0.3301714257414023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05197413736568035</v>
+      </c>
+      <c r="F42">
+        <v>0.1112420094644633</v>
+      </c>
+      <c r="G42">
+        <v>0.2146085798031363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006245237249307653</v>
+        <v>0.02822753827050876</v>
       </c>
       <c r="C43">
-        <v>0.0202929214323129</v>
+        <v>0.008080902382593878</v>
       </c>
       <c r="D43">
-        <v>-0.007991925850523451</v>
+        <v>-0.003826710152997241</v>
       </c>
       <c r="E43">
-        <v>-0.002256464699224848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00541473724358637</v>
+      </c>
+      <c r="F43">
+        <v>-0.000175131363051778</v>
+      </c>
+      <c r="G43">
+        <v>-0.02058017211629087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003044236697797928</v>
+        <v>0.01626888021696806</v>
       </c>
       <c r="C44">
-        <v>0.003193695373028023</v>
+        <v>0.04641177497339514</v>
       </c>
       <c r="D44">
-        <v>0.01578168413215276</v>
+        <v>-0.006377037751070939</v>
       </c>
       <c r="E44">
-        <v>-0.0003020393209162312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.02004151999249726</v>
+      </c>
+      <c r="F44">
+        <v>-0.02475476203234254</v>
+      </c>
+      <c r="G44">
+        <v>-0.03771064135545907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01016038610832195</v>
+        <v>0.003303716642262965</v>
       </c>
       <c r="C46">
-        <v>0.01329466367909039</v>
+        <v>0.01555948742811936</v>
       </c>
       <c r="D46">
-        <v>0.01311072618595282</v>
+        <v>-0.01150099818819378</v>
       </c>
       <c r="E46">
-        <v>-0.003149024190542443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0006087142060221608</v>
+      </c>
+      <c r="F46">
+        <v>0.008943774110927224</v>
+      </c>
+      <c r="G46">
+        <v>-0.02793284942420287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001011012133904443</v>
+        <v>0.07423771906273949</v>
       </c>
       <c r="C47">
-        <v>0.07140999794000358</v>
+        <v>0.06441364057114647</v>
       </c>
       <c r="D47">
-        <v>0.03494036523795958</v>
+        <v>0.005258201582333116</v>
       </c>
       <c r="E47">
-        <v>-0.01293697548083982</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01537179538847624</v>
+      </c>
+      <c r="F47">
+        <v>0.06077650970819637</v>
+      </c>
+      <c r="G47">
+        <v>-0.02662886247653834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00246590445529629</v>
+        <v>0.01916835142217117</v>
       </c>
       <c r="C48">
-        <v>0.02473266857302184</v>
+        <v>0.00984387065850041</v>
       </c>
       <c r="D48">
-        <v>0.005321246222471527</v>
+        <v>-0.0007856350171960325</v>
       </c>
       <c r="E48">
-        <v>-0.001688720492129338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001384481621522289</v>
+      </c>
+      <c r="F48">
+        <v>0.01221566638262397</v>
+      </c>
+      <c r="G48">
+        <v>-0.02552145485836763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001827340001360633</v>
+        <v>0.07909837898913669</v>
       </c>
       <c r="C50">
-        <v>0.06156290570264625</v>
+        <v>0.06509448520816309</v>
       </c>
       <c r="D50">
-        <v>0.04527818705294916</v>
+        <v>0.004417008784928666</v>
       </c>
       <c r="E50">
-        <v>0.01263751645794027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01588315014536904</v>
+      </c>
+      <c r="F50">
+        <v>0.05647635241029557</v>
+      </c>
+      <c r="G50">
+        <v>-0.04689735813307701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00661236509157722</v>
+        <v>0.01149268111414655</v>
       </c>
       <c r="C51">
-        <v>0.01041770136341085</v>
+        <v>0.02694000519644541</v>
       </c>
       <c r="D51">
-        <v>-0.01551699182540816</v>
+        <v>-0.008816250070851163</v>
       </c>
       <c r="E51">
-        <v>0.01609998956709219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01029440995393855</v>
+      </c>
+      <c r="F51">
+        <v>-0.02955007738953416</v>
+      </c>
+      <c r="G51">
+        <v>-0.04995463122527802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003522687749949696</v>
+        <v>0.09460755570650854</v>
       </c>
       <c r="C53">
-        <v>0.09913564203978907</v>
+        <v>0.07793073819236011</v>
       </c>
       <c r="D53">
-        <v>0.08142286356496209</v>
+        <v>0.00611973790375782</v>
       </c>
       <c r="E53">
-        <v>-0.01895874302134018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04161981245194829</v>
+      </c>
+      <c r="F53">
+        <v>0.06388241650240466</v>
+      </c>
+      <c r="G53">
+        <v>-0.02484077504269543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002199256363942366</v>
+        <v>0.02865635975614793</v>
       </c>
       <c r="C54">
-        <v>0.0236470849041099</v>
+        <v>0.00478230247136064</v>
       </c>
       <c r="D54">
-        <v>-0.003549207089998068</v>
+        <v>0.004007294692341972</v>
       </c>
       <c r="E54">
-        <v>0.01428548861445011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005330939471420026</v>
+      </c>
+      <c r="F54">
+        <v>0.002042977747633035</v>
+      </c>
+      <c r="G54">
+        <v>-0.03461982275626531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001184183011196981</v>
+        <v>0.07284037471471747</v>
       </c>
       <c r="C55">
-        <v>0.07538633499702956</v>
+        <v>0.07232964395750115</v>
       </c>
       <c r="D55">
-        <v>0.07412293813658224</v>
+        <v>0.004962006456625793</v>
       </c>
       <c r="E55">
-        <v>-0.02830634440801009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02878187413210049</v>
+      </c>
+      <c r="F55">
+        <v>0.06158633382134481</v>
+      </c>
+      <c r="G55">
+        <v>-0.01226917444396599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.001099872063144432</v>
+        <v>0.1451303621026054</v>
       </c>
       <c r="C56">
-        <v>0.1345215649296702</v>
+        <v>0.1014670498834732</v>
       </c>
       <c r="D56">
-        <v>0.102208412671881</v>
+        <v>0.01421167541555452</v>
       </c>
       <c r="E56">
-        <v>-0.03563554618546472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04046699582522137</v>
+      </c>
+      <c r="F56">
+        <v>0.1001887551070532</v>
+      </c>
+      <c r="G56">
+        <v>-0.00542339220924239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02293771880148337</v>
+        <v>0.01237292198950805</v>
       </c>
       <c r="C57">
-        <v>0.02658322126871794</v>
+        <v>0.0115307835777563</v>
       </c>
       <c r="D57">
-        <v>0.0236465497694829</v>
+        <v>-0.0236927160070233</v>
       </c>
       <c r="E57">
-        <v>-0.008623186139353737</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02950455162728958</v>
+      </c>
+      <c r="F57">
+        <v>-0.01414347666818551</v>
+      </c>
+      <c r="G57">
+        <v>-0.02333901964830995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009508626765393271</v>
+        <v>0.06804844230817197</v>
       </c>
       <c r="C58">
-        <v>0.07755638134719406</v>
+        <v>0.06381813959004956</v>
       </c>
       <c r="D58">
-        <v>0.008087816407200844</v>
+        <v>-0.02218955052124024</v>
       </c>
       <c r="E58">
-        <v>-0.1443875301157501</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9318608120367281</v>
+      </c>
+      <c r="F58">
+        <v>0.2710948891320302</v>
+      </c>
+      <c r="G58">
+        <v>-0.03416463514779348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02148165788161453</v>
+        <v>0.1515644699093931</v>
       </c>
       <c r="C59">
-        <v>0.1661105351345528</v>
+        <v>-0.2126087172835806</v>
       </c>
       <c r="D59">
-        <v>-0.206637168479452</v>
+        <v>0.01637145291668225</v>
       </c>
       <c r="E59">
-        <v>0.05098042068967773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01659604550085046</v>
+      </c>
+      <c r="F59">
+        <v>-0.008837483670292655</v>
+      </c>
+      <c r="G59">
+        <v>-0.02229558029218097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02811829947413591</v>
+        <v>0.2924376663170415</v>
       </c>
       <c r="C60">
-        <v>0.1780316939039551</v>
+        <v>0.08755358765866926</v>
       </c>
       <c r="D60">
-        <v>0.01605311529566002</v>
+        <v>-0.007409876906541752</v>
       </c>
       <c r="E60">
-        <v>-0.04609064031202489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0288084143409699</v>
+      </c>
+      <c r="F60">
+        <v>-0.3835513997326856</v>
+      </c>
+      <c r="G60">
+        <v>0.08671070866582638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002896295782549063</v>
+        <v>0.03276457233193258</v>
       </c>
       <c r="C61">
-        <v>0.02331293348152114</v>
+        <v>0.06254253375223091</v>
       </c>
       <c r="D61">
-        <v>0.05091523635458976</v>
+        <v>-0.005068107304525959</v>
       </c>
       <c r="E61">
-        <v>-0.01726291601168553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0124751376335234</v>
+      </c>
+      <c r="F61">
+        <v>-0.02551987104622881</v>
+      </c>
+      <c r="G61">
+        <v>-0.02587747023902439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007328191106242578</v>
+        <v>0.01413230880509638</v>
       </c>
       <c r="C63">
-        <v>0.01030201140934909</v>
+        <v>0.02611813557090925</v>
       </c>
       <c r="D63">
-        <v>0.01551656845232584</v>
+        <v>-0.007878604536219504</v>
       </c>
       <c r="E63">
-        <v>0.001233572844265949</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007321841081837531</v>
+      </c>
+      <c r="F63">
+        <v>0.01030757019214849</v>
+      </c>
+      <c r="G63">
+        <v>-0.03384712508463027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00603675571169671</v>
+        <v>0.04698551118395714</v>
       </c>
       <c r="C64">
-        <v>0.04209096056563952</v>
+        <v>0.03576271446344482</v>
       </c>
       <c r="D64">
-        <v>0.04104220612478752</v>
+        <v>-0.004533090144892784</v>
       </c>
       <c r="E64">
-        <v>-0.01822120888910988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006499417247685223</v>
+      </c>
+      <c r="F64">
+        <v>-0.01257201840421061</v>
+      </c>
+      <c r="G64">
+        <v>-0.02177050688392857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0175171143690391</v>
+        <v>0.08109491229054651</v>
       </c>
       <c r="C65">
-        <v>0.0521629531699194</v>
+        <v>0.06701309493432535</v>
       </c>
       <c r="D65">
-        <v>0.06850556160288478</v>
+        <v>-0.01515024829471702</v>
       </c>
       <c r="E65">
-        <v>-0.01642913842002397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.008714809609073948</v>
+      </c>
+      <c r="F65">
+        <v>-0.04254606199785851</v>
+      </c>
+      <c r="G65">
+        <v>-0.01247605563390209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005405177057245757</v>
+        <v>0.05314063563014963</v>
       </c>
       <c r="C66">
-        <v>0.02385315829540973</v>
+        <v>0.1150235484502232</v>
       </c>
       <c r="D66">
-        <v>0.0825444133772921</v>
+        <v>-0.01115497123464932</v>
       </c>
       <c r="E66">
-        <v>-0.04246381535226083</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02101419464585208</v>
+      </c>
+      <c r="F66">
+        <v>-0.0507727722425497</v>
+      </c>
+      <c r="G66">
+        <v>-0.01631179436042502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001660759437296537</v>
+        <v>0.05752382092122776</v>
       </c>
       <c r="C67">
-        <v>0.04337375390462823</v>
+        <v>0.02957892756945962</v>
       </c>
       <c r="D67">
-        <v>0.01758626803747815</v>
+        <v>0.006659036074594424</v>
       </c>
       <c r="E67">
-        <v>-0.00800639839587953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00139880978256369</v>
+      </c>
+      <c r="F67">
+        <v>0.001965119747605474</v>
+      </c>
+      <c r="G67">
+        <v>-0.0295977785551572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03816035886871492</v>
+        <v>0.1347375783330731</v>
       </c>
       <c r="C68">
-        <v>0.1412960361233661</v>
+        <v>-0.2709382474572111</v>
       </c>
       <c r="D68">
-        <v>-0.2072723135390858</v>
+        <v>-0.001441091198472801</v>
       </c>
       <c r="E68">
-        <v>0.05792730730056615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01960788080955203</v>
+      </c>
+      <c r="F68">
+        <v>0.01542733430445385</v>
+      </c>
+      <c r="G68">
+        <v>-0.01707274704048872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00312352872892146</v>
+        <v>0.07752484893586643</v>
       </c>
       <c r="C69">
-        <v>0.05774572324668853</v>
+        <v>0.06484169306146563</v>
       </c>
       <c r="D69">
-        <v>0.04137142250425774</v>
+        <v>0.009462212002513022</v>
       </c>
       <c r="E69">
-        <v>-0.01029415986833114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03211158536162295</v>
+      </c>
+      <c r="F69">
+        <v>0.03735017427074707</v>
+      </c>
+      <c r="G69">
+        <v>-0.02581865583371241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02684454556671736</v>
+        <v>0.1301797976644695</v>
       </c>
       <c r="C71">
-        <v>0.1311929210406022</v>
+        <v>-0.2270585297208323</v>
       </c>
       <c r="D71">
-        <v>-0.18232533767876</v>
+        <v>0.00717107265431624</v>
       </c>
       <c r="E71">
-        <v>0.06099609746638882</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02722955554024464</v>
+      </c>
+      <c r="F71">
+        <v>0.01959295519070616</v>
+      </c>
+      <c r="G71">
+        <v>-0.03499723376910729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002248966705625576</v>
+        <v>0.08467852929294499</v>
       </c>
       <c r="C72">
-        <v>0.09805070268456638</v>
+        <v>0.07701286826409968</v>
       </c>
       <c r="D72">
-        <v>0.0971291978907849</v>
+        <v>0.009172628589086792</v>
       </c>
       <c r="E72">
-        <v>-0.05383844515911102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01107878478329164</v>
+      </c>
+      <c r="F72">
+        <v>-0.04204172572032059</v>
+      </c>
+      <c r="G72">
+        <v>0.000441677665892326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04145793376684629</v>
+        <v>0.4041752999705076</v>
       </c>
       <c r="C73">
-        <v>0.2299416730419712</v>
+        <v>0.1027135985766927</v>
       </c>
       <c r="D73">
-        <v>0.04308831157999803</v>
+        <v>-0.0120689171872944</v>
       </c>
       <c r="E73">
-        <v>-0.1196919100040475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08608897500234299</v>
+      </c>
+      <c r="F73">
+        <v>-0.5296632681910903</v>
+      </c>
+      <c r="G73">
+        <v>0.1401357770637603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0005211124606018705</v>
+        <v>0.1164770656850124</v>
       </c>
       <c r="C74">
-        <v>0.1217620315263356</v>
+        <v>0.1167949674508243</v>
       </c>
       <c r="D74">
-        <v>0.09735416120745055</v>
+        <v>0.01078612591646313</v>
       </c>
       <c r="E74">
-        <v>-0.0407843646347695</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03727467783005792</v>
+      </c>
+      <c r="F74">
+        <v>0.06834707887843233</v>
+      </c>
+      <c r="G74">
+        <v>-0.02660544998218895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001200421011826792</v>
+        <v>0.2607104960225436</v>
       </c>
       <c r="C75">
-        <v>0.2713658733454918</v>
+        <v>0.1491149400161498</v>
       </c>
       <c r="D75">
-        <v>0.1677800231610548</v>
+        <v>0.03196946027651171</v>
       </c>
       <c r="E75">
-        <v>-0.08221897258661504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07960226934574063</v>
+      </c>
+      <c r="F75">
+        <v>0.2119668037843172</v>
+      </c>
+      <c r="G75">
+        <v>0.02434614463862901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004141863824417396</v>
+        <v>0.137118764175554</v>
       </c>
       <c r="C76">
-        <v>0.2136049407024034</v>
+        <v>0.122547034705836</v>
       </c>
       <c r="D76">
-        <v>0.170205949755487</v>
+        <v>0.02213531356872358</v>
       </c>
       <c r="E76">
-        <v>-0.05031687035503592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07310088429164283</v>
+      </c>
+      <c r="F76">
+        <v>0.1317070202628107</v>
+      </c>
+      <c r="G76">
+        <v>-0.01447528888023633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01250544424776933</v>
+        <v>0.06071514964098318</v>
       </c>
       <c r="C77">
-        <v>0.0285021900550287</v>
+        <v>0.05995240218543056</v>
       </c>
       <c r="D77">
-        <v>0.05288913789440919</v>
+        <v>-0.01247894232336952</v>
       </c>
       <c r="E77">
-        <v>-0.01876101153026614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04898460191118693</v>
+      </c>
+      <c r="F77">
+        <v>-0.0162436026412163</v>
+      </c>
+      <c r="G77">
+        <v>-0.05262438712493338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004480567183843315</v>
+        <v>0.04036383152853031</v>
       </c>
       <c r="C78">
-        <v>0.02678382973139998</v>
+        <v>0.05114652075657496</v>
       </c>
       <c r="D78">
-        <v>0.05012912324242179</v>
+        <v>-0.005480471242972599</v>
       </c>
       <c r="E78">
-        <v>-0.01502128850615118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02215051389201084</v>
+      </c>
+      <c r="F78">
+        <v>-0.03951536427014627</v>
+      </c>
+      <c r="G78">
+        <v>-0.03647894455475689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01493855932626174</v>
+        <v>0.06142972485758833</v>
       </c>
       <c r="C80">
-        <v>0.1776281630871817</v>
+        <v>0.06909588520534883</v>
       </c>
       <c r="D80">
-        <v>0.3718079912489468</v>
+        <v>-0.01187508944100314</v>
       </c>
       <c r="E80">
-        <v>0.8563252155271539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05563225505376777</v>
+      </c>
+      <c r="F80">
+        <v>-0.03841246267262451</v>
+      </c>
+      <c r="G80">
+        <v>-0.9028530724372201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001732197202524676</v>
+        <v>0.14451663112243</v>
       </c>
       <c r="C81">
-        <v>0.176788859484832</v>
+        <v>0.09500017501367401</v>
       </c>
       <c r="D81">
-        <v>0.1156151579955165</v>
+        <v>0.0161014370138764</v>
       </c>
       <c r="E81">
-        <v>-0.04490019658941791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04757111041811682</v>
+      </c>
+      <c r="F81">
+        <v>0.1340577725558471</v>
+      </c>
+      <c r="G81">
+        <v>-0.01964507287553089</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05167268446264171</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03442645509399558</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.003188975819699597</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01795329081356032</v>
+      </c>
+      <c r="F82">
+        <v>0.002926506769593606</v>
+      </c>
+      <c r="G82">
+        <v>0.008790335737255142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006563043735935255</v>
+        <v>0.02811688021017412</v>
       </c>
       <c r="C83">
-        <v>0.03299642216120837</v>
+        <v>0.02017649108101526</v>
       </c>
       <c r="D83">
-        <v>0.009788552291754017</v>
+        <v>-0.005102018937993384</v>
       </c>
       <c r="E83">
-        <v>-0.007804674221272898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0277216652480867</v>
+      </c>
+      <c r="F83">
+        <v>-0.01982771267246009</v>
+      </c>
+      <c r="G83">
+        <v>-0.02573601480380086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009368430668371357</v>
+        <v>0.2394084295447229</v>
       </c>
       <c r="C85">
-        <v>0.227211228698331</v>
+        <v>0.1522448099898313</v>
       </c>
       <c r="D85">
-        <v>0.1801127766591724</v>
+        <v>0.02103093908294642</v>
       </c>
       <c r="E85">
-        <v>-0.09510671544032322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1278062772777492</v>
+      </c>
+      <c r="F85">
+        <v>0.1991301439602457</v>
+      </c>
+      <c r="G85">
+        <v>0.04690351633230886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.004867167615244315</v>
+        <v>0.009864988859498439</v>
       </c>
       <c r="C86">
-        <v>0.01311455001096308</v>
+        <v>0.02089277458772585</v>
       </c>
       <c r="D86">
-        <v>-0.01716038995009561</v>
+        <v>-0.00960977563363186</v>
       </c>
       <c r="E86">
-        <v>-0.009184226404229296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03914242866681307</v>
+      </c>
+      <c r="F86">
+        <v>-0.01734703401540189</v>
+      </c>
+      <c r="G86">
+        <v>-0.05230916863749013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006550766731717633</v>
+        <v>0.01353722364522553</v>
       </c>
       <c r="C87">
-        <v>0.01516584289832725</v>
+        <v>0.0275739460760936</v>
       </c>
       <c r="D87">
-        <v>0.02451530732563533</v>
+        <v>-0.01195372222082228</v>
       </c>
       <c r="E87">
-        <v>-0.01060844438066358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08643990450655946</v>
+      </c>
+      <c r="F87">
+        <v>-0.05355252551799427</v>
+      </c>
+      <c r="G87">
+        <v>-0.04369294527995078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02592594794966318</v>
+        <v>0.08595927520183298</v>
       </c>
       <c r="C88">
-        <v>0.0450924542995304</v>
+        <v>0.06087368139694321</v>
       </c>
       <c r="D88">
-        <v>0.009125155357403696</v>
+        <v>-0.0213336770438635</v>
       </c>
       <c r="E88">
-        <v>-0.005997566002903193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0161707964988042</v>
+      </c>
+      <c r="F88">
+        <v>0.007371968924175728</v>
+      </c>
+      <c r="G88">
+        <v>-0.02203556783182539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05062669847564385</v>
+        <v>0.2197056836544738</v>
       </c>
       <c r="C89">
-        <v>0.2543451804061806</v>
+        <v>-0.3677390893980414</v>
       </c>
       <c r="D89">
-        <v>-0.3442737391880789</v>
+        <v>0.008485286417650966</v>
       </c>
       <c r="E89">
-        <v>0.08452872199370147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01614939332989329</v>
+      </c>
+      <c r="F89">
+        <v>0.03543593309200498</v>
+      </c>
+      <c r="G89">
+        <v>-0.0305026378404754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03801245037049692</v>
+        <v>0.1891468564476904</v>
       </c>
       <c r="C90">
-        <v>0.1756895307892017</v>
+        <v>-0.3360326097591034</v>
       </c>
       <c r="D90">
-        <v>-0.2961087869847757</v>
+        <v>0.01222357040460999</v>
       </c>
       <c r="E90">
-        <v>0.06298400818605655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004646654271742905</v>
+      </c>
+      <c r="F90">
+        <v>0.0472949437658611</v>
+      </c>
+      <c r="G90">
+        <v>0.001263284869522338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0006587296520918539</v>
+        <v>0.2088262252552748</v>
       </c>
       <c r="C91">
-        <v>0.2399461898595465</v>
+        <v>0.1375846501868596</v>
       </c>
       <c r="D91">
-        <v>0.1900380593235557</v>
+        <v>0.02500570034921386</v>
       </c>
       <c r="E91">
-        <v>-0.08800239693628378</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09092668885015538</v>
+      </c>
+      <c r="F91">
+        <v>0.1877440459637797</v>
+      </c>
+      <c r="G91">
+        <v>-0.001559591427304774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.005295994827855696</v>
+        <v>0.2082802204280685</v>
       </c>
       <c r="C92">
-        <v>0.3140270782572987</v>
+        <v>-0.2681603479202435</v>
       </c>
       <c r="D92">
-        <v>-0.2447494184225932</v>
+        <v>0.05393513590801147</v>
       </c>
       <c r="E92">
-        <v>0.06084585438319956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.009045004645293571</v>
+      </c>
+      <c r="F92">
+        <v>0.1288863526242684</v>
+      </c>
+      <c r="G92">
+        <v>-0.06998718705458026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03670991912082595</v>
+        <v>0.214773618762119</v>
       </c>
       <c r="C93">
-        <v>0.2306959991758699</v>
+        <v>-0.3328793359658611</v>
       </c>
       <c r="D93">
-        <v>-0.3287666215590591</v>
+        <v>0.01887138222816211</v>
       </c>
       <c r="E93">
-        <v>0.05278911689614692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005991063672590738</v>
+      </c>
+      <c r="F93">
+        <v>0.02555932063978285</v>
+      </c>
+      <c r="G93">
+        <v>-0.0002928820694144901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02101934063848597</v>
+        <v>0.2791761611923138</v>
       </c>
       <c r="C94">
-        <v>0.2837351235624027</v>
+        <v>0.1625270914718637</v>
       </c>
       <c r="D94">
-        <v>0.1559163558797478</v>
+        <v>0.01473518295636912</v>
       </c>
       <c r="E94">
-        <v>-0.1259743956104039</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1320710270258108</v>
+      </c>
+      <c r="F94">
+        <v>0.3939280103780698</v>
+      </c>
+      <c r="G94">
+        <v>0.1502555680558386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006131951924306232</v>
+        <v>0.08232229887064066</v>
       </c>
       <c r="C95">
-        <v>0.06896792945591358</v>
+        <v>0.07616025899576975</v>
       </c>
       <c r="D95">
-        <v>0.0007702298659230448</v>
+        <v>0.00723816068285054</v>
       </c>
       <c r="E95">
-        <v>-0.09706667575407124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08803935501029463</v>
+      </c>
+      <c r="F95">
+        <v>-0.1550187065370474</v>
+      </c>
+      <c r="G95">
+        <v>0.05812095033864381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003589304990556396</v>
+        <v>0.2106951577009432</v>
       </c>
       <c r="C98">
-        <v>0.1834640815988088</v>
+        <v>0.04649700192382931</v>
       </c>
       <c r="D98">
-        <v>0.01254662446014346</v>
+        <v>0.01692724191500442</v>
       </c>
       <c r="E98">
-        <v>-0.05935712763032055</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07999263962330101</v>
+      </c>
+      <c r="F98">
+        <v>-0.2390670255254823</v>
+      </c>
+      <c r="G98">
+        <v>0.037645724560588</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006764849744466682</v>
+        <v>0.01372615629783267</v>
       </c>
       <c r="C101">
-        <v>0.02198199153508149</v>
+        <v>0.0200736599173838</v>
       </c>
       <c r="D101">
-        <v>0.01244282332089233</v>
+        <v>-0.00678063991300788</v>
       </c>
       <c r="E101">
-        <v>0.003270385198793695</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.002679025288003796</v>
+      </c>
+      <c r="F101">
+        <v>0.01839066237219767</v>
+      </c>
+      <c r="G101">
+        <v>-0.03377085959968206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0143689802558412</v>
+        <v>0.1241112287536826</v>
       </c>
       <c r="C102">
-        <v>0.1403727784845498</v>
+        <v>0.08220294826135786</v>
       </c>
       <c r="D102">
-        <v>0.08632601125738608</v>
+        <v>0.0001316368521997315</v>
       </c>
       <c r="E102">
-        <v>-0.04117862264311611</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03931155421133233</v>
+      </c>
+      <c r="F102">
+        <v>0.05991134785673945</v>
+      </c>
+      <c r="G102">
+        <v>0.00582097233356877</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002083177165489874</v>
+        <v>0.004102804251869549</v>
       </c>
       <c r="C103">
-        <v>0.02025468644750873</v>
+        <v>0.005462484455183179</v>
       </c>
       <c r="D103">
-        <v>0.02511019412941627</v>
+        <v>-0.0007245740788073989</v>
       </c>
       <c r="E103">
-        <v>0.007886827474970737</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.000604372645726362</v>
+      </c>
+      <c r="F103">
+        <v>0.008622481582941446</v>
+      </c>
+      <c r="G103">
+        <v>-0.01874586257252699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9856706239562225</v>
+        <v>0.03911655148960859</v>
       </c>
       <c r="C104">
-        <v>-0.09923697604824948</v>
+        <v>-0.04408937499910112</v>
       </c>
       <c r="D104">
-        <v>0.02571017048981225</v>
+        <v>-0.9861262437000884</v>
       </c>
       <c r="E104">
-        <v>0.01741454382523263</v>
+        <v>0.04865670588580499</v>
+      </c>
+      <c r="F104">
+        <v>0.03611646390822987</v>
+      </c>
+      <c r="G104">
+        <v>0.0001193207075484916</v>
       </c>
     </row>
   </sheetData>
